--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>6.062415864289999</v>
+        <v>6.299511349414501</v>
       </c>
       <c r="R2">
-        <v>36.37449518574</v>
+        <v>25.198045397658</v>
       </c>
       <c r="S2">
-        <v>0.002845467144334671</v>
+        <v>0.002668132637528668</v>
       </c>
       <c r="T2">
-        <v>0.002273089375661487</v>
+        <v>0.001525403372174765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>399.0890823325501</v>
+        <v>41.534403289785</v>
       </c>
       <c r="R3">
-        <v>3591.801740992951</v>
+        <v>249.20641973871</v>
       </c>
       <c r="S3">
-        <v>0.1873172175681717</v>
+        <v>0.01759172908039183</v>
       </c>
       <c r="T3">
-        <v>0.2244563487477416</v>
+        <v>0.01508610318927196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>308.0020631072656</v>
+        <v>19.268986517886</v>
       </c>
       <c r="R4">
-        <v>2772.018567965391</v>
+        <v>115.613919107316</v>
       </c>
       <c r="S4">
-        <v>0.1445644394211578</v>
+        <v>0.008161301562739458</v>
       </c>
       <c r="T4">
-        <v>0.1732270351465583</v>
+        <v>0.006998870717687952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>542.583844535785</v>
+        <v>61.99511913040951</v>
       </c>
       <c r="R5">
-        <v>3255.50306721471</v>
+        <v>247.980476521638</v>
       </c>
       <c r="S5">
-        <v>0.2546681945340584</v>
+        <v>0.02625778279369199</v>
       </c>
       <c r="T5">
-        <v>0.2034406085014261</v>
+        <v>0.01501188878542022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>17.07104040453556</v>
+        <v>6.279938040033</v>
       </c>
       <c r="R6">
-        <v>153.63936364082</v>
+        <v>37.679628240198</v>
       </c>
       <c r="S6">
-        <v>0.008012496284994538</v>
+        <v>0.002659842441243827</v>
       </c>
       <c r="T6">
-        <v>0.009601123077915641</v>
+        <v>0.002280995651560799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>313.6877740869378</v>
+        <v>30.54696458102099</v>
       </c>
       <c r="R7">
-        <v>2823.18996678244</v>
+        <v>183.281787486126</v>
       </c>
       <c r="S7">
-        <v>0.1472330956379209</v>
+        <v>0.01293804370772815</v>
       </c>
       <c r="T7">
-        <v>0.1764248022191958</v>
+        <v>0.01109525172597475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>0.05281186742799999</v>
+        <v>60.529729680735</v>
       </c>
       <c r="R8">
-        <v>0.3168712045679999</v>
+        <v>363.17837808441</v>
       </c>
       <c r="S8">
-        <v>2.478787944629591E-05</v>
+        <v>0.02563712299954302</v>
       </c>
       <c r="T8">
-        <v>1.98016925012598E-05</v>
+        <v>0.02198557522570424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
-        <v>3.47660737566</v>
+        <v>399.08908233255</v>
       </c>
       <c r="R9">
-        <v>31.28946638094</v>
+        <v>3591.80174099295</v>
       </c>
       <c r="S9">
-        <v>0.00163178710973347</v>
+        <v>0.1690325720187505</v>
       </c>
       <c r="T9">
-        <v>0.001955319331236103</v>
+        <v>0.2174353764916651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>2.683115854883111</v>
+        <v>185.1487330454244</v>
       </c>
       <c r="R10">
-        <v>24.148042693948</v>
+        <v>1666.33859740882</v>
       </c>
       <c r="S10">
-        <v>0.00125935240676655</v>
+        <v>0.07841899951200085</v>
       </c>
       <c r="T10">
-        <v>0.001509042503829775</v>
+        <v>0.1008744319473537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>4.726641442561999</v>
+        <v>595.688712083585</v>
       </c>
       <c r="R11">
-        <v>28.359848655372</v>
+        <v>3574.13227250151</v>
       </c>
       <c r="S11">
-        <v>0.00221850549829213</v>
+        <v>0.2523015526696929</v>
       </c>
       <c r="T11">
-        <v>0.001772243720351781</v>
+        <v>0.2163657273821399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>0.1487119232471111</v>
+        <v>60.34165681918999</v>
       </c>
       <c r="R12">
-        <v>1.338407309224</v>
+        <v>543.0749113727099</v>
       </c>
       <c r="S12">
-        <v>6.979971368559879E-05</v>
+        <v>0.02555746549719273</v>
       </c>
       <c r="T12">
-        <v>8.363880843898122E-05</v>
+        <v>0.03287589525608357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>2.732646111667556</v>
+        <v>293.5147515573632</v>
       </c>
       <c r="R13">
-        <v>24.593815005008</v>
+        <v>2641.632764016269</v>
       </c>
       <c r="S13">
-        <v>0.001282600023143508</v>
+        <v>0.124316989808917</v>
       </c>
       <c r="T13">
-        <v>0.001536899393638428</v>
+        <v>0.1599154006862883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>1.3855261543485</v>
+        <v>1.381227154398</v>
       </c>
       <c r="R14">
-        <v>5.542104617393999</v>
+        <v>8.287362926388001</v>
       </c>
       <c r="S14">
-        <v>0.0006503132147429392</v>
+        <v>0.0005850131932586609</v>
       </c>
       <c r="T14">
-        <v>0.0003463333047036067</v>
+        <v>0.0005016885696826047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>91.20924295935751</v>
+        <v>9.106808843340001</v>
       </c>
       <c r="R15">
-        <v>547.255457756145</v>
+        <v>81.96127959006002</v>
       </c>
       <c r="S15">
-        <v>0.04281014531339569</v>
+        <v>0.003857152174336272</v>
       </c>
       <c r="T15">
-        <v>0.03419870325199538</v>
+        <v>0.004961655172113327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>70.39189055671817</v>
+        <v>4.224906653864</v>
       </c>
       <c r="R16">
-        <v>422.351343340309</v>
+        <v>38.024159884776</v>
       </c>
       <c r="S16">
-        <v>0.03303927283949225</v>
+        <v>0.001789442181850231</v>
       </c>
       <c r="T16">
-        <v>0.02639328316285696</v>
+        <v>0.00230185241739983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>124.0040479505003</v>
+        <v>13.593013367778</v>
       </c>
       <c r="R17">
-        <v>496.016191802001</v>
+        <v>81.55808020666801</v>
       </c>
       <c r="S17">
-        <v>0.05820277791994949</v>
+        <v>0.005757266015927225</v>
       </c>
       <c r="T17">
-        <v>0.03099669507394873</v>
+        <v>0.004937246862286959</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>3.901476489223667</v>
+        <v>1.376935522092</v>
       </c>
       <c r="R18">
-        <v>23.408858935342</v>
+        <v>12.392419698828</v>
       </c>
       <c r="S18">
-        <v>0.001831204492234265</v>
+        <v>0.0005831954896958321</v>
       </c>
       <c r="T18">
-        <v>0.001462849952159463</v>
+        <v>0.0007501946480243331</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>71.69132323252734</v>
+        <v>6.697709492603998</v>
       </c>
       <c r="R19">
-        <v>430.147939395164</v>
+        <v>60.27938543343599</v>
       </c>
       <c r="S19">
-        <v>0.03364917705392755</v>
+        <v>0.002836787855864922</v>
       </c>
       <c r="T19">
-        <v>0.02688050256117766</v>
+        <v>0.00364910755424434</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>0.38901311054</v>
+        <v>20.3202289914435</v>
       </c>
       <c r="R20">
-        <v>2.33407866324</v>
+        <v>81.28091596577401</v>
       </c>
       <c r="S20">
-        <v>0.000182587940111007</v>
+        <v>0.00860655107465848</v>
       </c>
       <c r="T20">
-        <v>0.0001458596025670472</v>
+        <v>0.004920468288352598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>25.60874885130001</v>
+        <v>133.976833925355</v>
       </c>
       <c r="R21">
-        <v>230.4787396617</v>
+        <v>803.8610035521301</v>
       </c>
       <c r="S21">
-        <v>0.01201977150612818</v>
+        <v>0.05674534792325158</v>
       </c>
       <c r="T21">
-        <v>0.01440291533300085</v>
+        <v>0.04866299215780356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>19.76387686101556</v>
+        <v>62.15564934459134</v>
       </c>
       <c r="R22">
-        <v>177.87489174914</v>
+        <v>372.933896067548</v>
       </c>
       <c r="S22">
-        <v>0.009276411171981231</v>
+        <v>0.0263257747187812</v>
       </c>
       <c r="T22">
-        <v>0.01111563265874316</v>
+        <v>0.02257614087450545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>34.81652097391</v>
+        <v>199.9766247264285</v>
       </c>
       <c r="R23">
-        <v>208.89912584346</v>
+        <v>799.9064989057141</v>
       </c>
       <c r="S23">
-        <v>0.01634154910006365</v>
+        <v>0.08469929325946811</v>
       </c>
       <c r="T23">
-        <v>0.01305437728042742</v>
+        <v>0.04842359998957275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>1.095414547035556</v>
+        <v>20.257091692899</v>
       </c>
       <c r="R24">
-        <v>9.85873092332</v>
+        <v>121.542550157394</v>
       </c>
       <c r="S24">
-        <v>0.0005141458739866509</v>
+        <v>0.008579809526378289</v>
       </c>
       <c r="T24">
-        <v>0.0006160848804876176</v>
+        <v>0.007357769737570245</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>20.12871757193778</v>
+        <v>98.53483561666297</v>
       </c>
       <c r="R25">
-        <v>181.15845814744</v>
+        <v>591.209013699978</v>
       </c>
       <c r="S25">
-        <v>0.00944765350821883</v>
+        <v>0.04173403241297057</v>
       </c>
       <c r="T25">
-        <v>0.01132082698119745</v>
+        <v>0.03578976896525007</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>0.251628108158</v>
+        <v>0.5890637236155001</v>
       </c>
       <c r="R26">
-        <v>1.509768648948</v>
+        <v>3.534382341693</v>
       </c>
       <c r="S26">
-        <v>0.0001181046517399436</v>
+        <v>0.0002494955655106109</v>
       </c>
       <c r="T26">
-        <v>9.434740078470943E-05</v>
+        <v>0.000213959402703296</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>16.56468857001</v>
+        <v>3.883858430115001</v>
       </c>
       <c r="R27">
-        <v>149.08219713009</v>
+        <v>34.954725871035</v>
       </c>
       <c r="S27">
-        <v>0.007774834016211069</v>
+        <v>0.001644992581510919</v>
       </c>
       <c r="T27">
-        <v>0.009316339832793886</v>
+        <v>0.002116039394153843</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>12.78400858393089</v>
+        <v>1.801831970598444</v>
       </c>
       <c r="R28">
-        <v>115.056077255378</v>
+        <v>16.216487735386</v>
       </c>
       <c r="S28">
-        <v>0.006000326802511093</v>
+        <v>0.0007631586676231855</v>
       </c>
       <c r="T28">
-        <v>0.007190003475760027</v>
+        <v>0.0009816906306029448</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>22.520617089607</v>
+        <v>5.797128331920501</v>
       </c>
       <c r="R29">
-        <v>135.123702537642</v>
+        <v>34.782769991523</v>
       </c>
       <c r="S29">
-        <v>0.01057032005608271</v>
+        <v>0.002455350335669578</v>
       </c>
       <c r="T29">
-        <v>0.008444055403929547</v>
+        <v>0.002105629774108581</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>0.7085547572848888</v>
+        <v>0.5872334345869999</v>
       </c>
       <c r="R30">
-        <v>6.376992815564</v>
+        <v>5.285100911283</v>
       </c>
       <c r="S30">
-        <v>0.0003325686206537238</v>
+        <v>0.0002487203539708292</v>
       </c>
       <c r="T30">
-        <v>0.0003985065509145777</v>
+        <v>0.0003199419091888894</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.871643</v>
+      </c>
+      <c r="N31">
+        <v>65.61492899999999</v>
+      </c>
+      <c r="O31">
+        <v>0.1841011226375993</v>
+      </c>
+      <c r="P31">
+        <v>0.2133763254276736</v>
+      </c>
+      <c r="Q31">
+        <v>2.856429285252333</v>
+      </c>
+      <c r="R31">
+        <v>25.707863567271</v>
+      </c>
+      <c r="S31">
+        <v>0.001209829108964585</v>
+      </c>
+      <c r="T31">
+        <v>0.001556266018179677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.510453500000001</v>
+      </c>
+      <c r="N32">
+        <v>9.020907000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.03796603451120199</v>
+      </c>
+      <c r="P32">
+        <v>0.02933551886773785</v>
+      </c>
+      <c r="Q32">
+        <v>0.5187607883955</v>
+      </c>
+      <c r="R32">
+        <v>3.112564730373</v>
+      </c>
+      <c r="S32">
+        <v>0.0002197190407025431</v>
+      </c>
+      <c r="T32">
+        <v>0.0001884240091203463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>29.738655</v>
+      </c>
+      <c r="N33">
+        <v>89.21596500000001</v>
+      </c>
+      <c r="O33">
+        <v>0.2503204615781384</v>
+      </c>
+      <c r="P33">
+        <v>0.2901256630359829</v>
+      </c>
+      <c r="Q33">
+        <v>3.420331927515</v>
+      </c>
+      <c r="R33">
+        <v>30.782987347635</v>
+      </c>
+      <c r="S33">
+        <v>0.001448667799897258</v>
+      </c>
+      <c r="T33">
+        <v>0.001863496630975188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.79660466666667</v>
+      </c>
+      <c r="N34">
+        <v>41.389814</v>
+      </c>
+      <c r="O34">
+        <v>0.1161307546817802</v>
+      </c>
+      <c r="P34">
+        <v>0.1345975154747921</v>
+      </c>
+      <c r="Q34">
+        <v>1.586788892527333</v>
+      </c>
+      <c r="R34">
+        <v>14.281100032746</v>
+      </c>
+      <c r="S34">
+        <v>0.000672078038785286</v>
+      </c>
+      <c r="T34">
+        <v>0.0008645288872422069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>44.3885385</v>
+      </c>
+      <c r="N35">
+        <v>88.77707700000001</v>
+      </c>
+      <c r="O35">
+        <v>0.373633556934534</v>
+      </c>
+      <c r="P35">
+        <v>0.2886984221604453</v>
+      </c>
+      <c r="Q35">
+        <v>5.1052589785005</v>
+      </c>
+      <c r="R35">
+        <v>30.631553871003</v>
+      </c>
+      <c r="S35">
+        <v>0.002162311860084114</v>
+      </c>
+      <c r="T35">
+        <v>0.001854329366916839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>23.37486266666667</v>
-      </c>
-      <c r="N31">
-        <v>70.124588</v>
-      </c>
-      <c r="O31">
-        <v>0.1977236189200749</v>
-      </c>
-      <c r="P31">
-        <v>0.223485761929266</v>
-      </c>
-      <c r="Q31">
-        <v>13.02000108747644</v>
-      </c>
-      <c r="R31">
-        <v>117.180009787288</v>
-      </c>
-      <c r="S31">
-        <v>0.006111092696864138</v>
-      </c>
-      <c r="T31">
-        <v>0.00732273077405664</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.496439</v>
+      </c>
+      <c r="N36">
+        <v>13.489317</v>
+      </c>
+      <c r="O36">
+        <v>0.03784806965674616</v>
+      </c>
+      <c r="P36">
+        <v>0.04386655503336825</v>
+      </c>
+      <c r="Q36">
+        <v>0.517148938707</v>
+      </c>
+      <c r="R36">
+        <v>4.654340448363</v>
+      </c>
+      <c r="S36">
+        <v>0.0002190363482646483</v>
+      </c>
+      <c r="T36">
+        <v>0.0002817578309404189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.871643</v>
+      </c>
+      <c r="N37">
+        <v>65.61492899999999</v>
+      </c>
+      <c r="O37">
+        <v>0.1841011226375993</v>
+      </c>
+      <c r="P37">
+        <v>0.2133763254276736</v>
+      </c>
+      <c r="Q37">
+        <v>2.515523276358999</v>
+      </c>
+      <c r="R37">
+        <v>22.63970948723099</v>
+      </c>
+      <c r="S37">
+        <v>0.001065439743154095</v>
+      </c>
+      <c r="T37">
+        <v>0.001370530477736537</v>
       </c>
     </row>
   </sheetData>
